--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3600.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3600.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.489881777228229</v>
+        <v>1.803267002105713</v>
       </c>
       <c r="B1">
-        <v>3.177789409824115</v>
+        <v>4.641120433807373</v>
       </c>
       <c r="C1">
-        <v>4.292330123941085</v>
+        <v>2.802369356155396</v>
       </c>
       <c r="D1">
-        <v>1.373108887766519</v>
+        <v>1.433313369750977</v>
       </c>
       <c r="E1">
-        <v>0.8164528730665814</v>
+        <v>1.056817889213562</v>
       </c>
     </row>
   </sheetData>
